--- a/Chess_Tournament.xlsx
+++ b/Chess_Tournament.xlsx
@@ -1,42 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus ROG Strix\Documents\GitHub\School-Chess-Tournament-Organizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E704EC96-AEF0-4E66-B199-D4E0889F09BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC556D94-877F-469B-AE8D-26B2CA090462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4E89692E-9B63-442A-813C-A115A22B7D23}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Round 6" sheetId="1" r:id="rId1"/>
+    <sheet name="Round 7" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="106">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
   <si>
     <t>Harry Winward</t>
   </si>
@@ -344,10 +335,10 @@
     <t>Aryan Rudraraju</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Points</t>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>White</t>
   </si>
 </sst>
 </file>
@@ -707,845 +698,1282 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72516836-AA87-4B03-987D-07B0DCA61299}">
-  <dimension ref="A1:B103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="D1:E103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>67</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>72</v>
+      </c>
+      <c r="E72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>74</v>
+      </c>
+      <c r="E74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>75</v>
+      </c>
+      <c r="E75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>76</v>
+      </c>
+      <c r="E76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>77</v>
+      </c>
+      <c r="E77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>78</v>
+      </c>
+      <c r="E78">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>79</v>
+      </c>
+      <c r="E79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>80</v>
+      </c>
+      <c r="E80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>81</v>
+      </c>
+      <c r="E81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>82</v>
+      </c>
+      <c r="E82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>83</v>
+      </c>
+      <c r="E83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>84</v>
+      </c>
+      <c r="E84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>85</v>
+      </c>
+      <c r="E85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
+        <v>86</v>
+      </c>
+      <c r="E86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D87" t="s">
+        <v>87</v>
+      </c>
+      <c r="E87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>88</v>
+      </c>
+      <c r="E88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>89</v>
+      </c>
+      <c r="E89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D90" t="s">
+        <v>90</v>
+      </c>
+      <c r="E90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D91" t="s">
+        <v>91</v>
+      </c>
+      <c r="E91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D92" t="s">
+        <v>92</v>
+      </c>
+      <c r="E92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D93" t="s">
+        <v>93</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>94</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D95" t="s">
+        <v>95</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D96" t="s">
+        <v>96</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
+        <v>97</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
+        <v>98</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D99" t="s">
+        <v>99</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>100</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D101" t="s">
+        <v>101</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D102" t="s">
+        <v>102</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D103" t="s">
+        <v>103</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
         <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>14</v>
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>14</v>
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>14</v>
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>14</v>
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>14</v>
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>14</v>
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>14</v>
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>14</v>
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>13</v>
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>13</v>
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>13</v>
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>13</v>
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>13</v>
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>13</v>
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>13</v>
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>13</v>
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>13</v>
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>12</v>
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>12</v>
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>12</v>
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>12</v>
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>12</v>
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>12</v>
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>12</v>
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>12</v>
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>12</v>
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>12</v>
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>12</v>
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>0</v>
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>